--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1929338.269567367</v>
+        <v>2004867.939232172</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>32.44203069056119</v>
       </c>
       <c r="Y2" t="n">
-        <v>177.4339484441091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>44.64130008435424</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>317.3582100207915</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>8.777525990011728</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>167.2286752376184</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>75.51862566593917</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>191.4412686601322</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.94981712654037</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>92.90596609416698</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.92656778835364</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>152.4910161853753</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>112.6185215999991</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>78.99509893178077</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>80.83119524461051</v>
       </c>
       <c r="T22" t="n">
-        <v>15.75208669539932</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231534</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>57.64843562452408</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.579515794323047</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>47.27820527287669</v>
+        <v>118.4898845065128</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63.79141683510382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>74.23837614724384</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15.49857985356261</v>
+        <v>139.0551934695318</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.9166902817493</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>41.92656778835364</v>
+        <v>150.5468687366562</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4568,10 +4570,10 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.850691555458</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.787804211887</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.019148941773</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036446</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="S7" t="n">
-        <v>411.0644718652463</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="T7" t="n">
-        <v>411.0644718652463</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="U7" t="n">
-        <v>411.0644718652463</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="V7" t="n">
-        <v>411.0644718652463</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="W7" t="n">
-        <v>411.0644718652463</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X7" t="n">
-        <v>411.0644718652463</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362306</v>
+        <v>2251.981069572904</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1883.018552632493</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1524.752854025742</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1138.964601427498</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>727.9786966378904</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4835,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>329.7728273507101</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>329.7728273507101</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286581</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286581</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286581</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286581</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.4038777286581</v>
+        <v>329.7728273507101</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,34 +5026,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5458,22 +5460,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5492,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,43 +5503,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5598,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>379.1484955647068</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>379.1484955647068</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>379.1484955647068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>379.1484955647068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>379.1484955647068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>210.9731738845274</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1108.128127811259</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1108.128127811259</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>1108.128127811259</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X19" t="n">
-        <v>781.5895395384766</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.7969603949465</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5747,16 +5749,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,31 +5767,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="T22" t="n">
-        <v>1483.005071875681</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U22" t="n">
-        <v>1193.876433089239</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V22" t="n">
-        <v>939.1919448833521</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>649.7747748463914</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>649.7747748463914</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>428.9821957028613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>4633.68764703131</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>4379.003158825423</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>4089.585988788463</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6223,13 @@
         <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,16 +6241,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.6879222525852</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1489.239991977778</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1489.239991977778</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1265.454576767284</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>976.3259379808422</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>976.3259379808422</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>976.3259379808422</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>748.3363870828249</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>748.3363870828249</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6457,34 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1340.085404217832</v>
+        <v>4741.167820987512</v>
       </c>
       <c r="U31" t="n">
-        <v>1050.956765431391</v>
+        <v>4452.03918220107</v>
       </c>
       <c r="V31" t="n">
-        <v>796.2722772255036</v>
+        <v>4197.354693995183</v>
       </c>
       <c r="W31" t="n">
-        <v>506.8551071885429</v>
+        <v>3907.937523958222</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>3679.947973060205</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,7 +6703,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.2811958984813</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>638.4104048697839</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>340.380671875055</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>340.380671875055</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>172.2053501948756</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6889,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5095496229244</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.7169704793943</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,7 +6940,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>841.7907383782456</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C37" t="n">
-        <v>672.8545554503387</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="D37" t="n">
-        <v>522.7379160380029</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="E37" t="n">
-        <v>374.8248224556098</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="F37" t="n">
-        <v>374.8248224556098</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="G37" t="n">
         <v>359.1696912903951</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352015</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X37" t="n">
-        <v>1244.231782352015</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y37" t="n">
-        <v>1023.439203208485</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,28 +7159,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>570.0299571250968</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7363,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.21084526296</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1075.21084526296</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1075.21084526296</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.4856756861153</v>
+        <v>4340.141453847861</v>
       </c>
       <c r="C43" t="n">
-        <v>699.5494927582084</v>
+        <v>4171.205270919954</v>
       </c>
       <c r="D43" t="n">
-        <v>549.4328533458727</v>
+        <v>4021.088631507619</v>
       </c>
       <c r="E43" t="n">
-        <v>401.5197597634796</v>
+        <v>3873.175537925225</v>
       </c>
       <c r="F43" t="n">
-        <v>401.5197597634796</v>
+        <v>3873.175537925225</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>4521.789918678101</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.134140516355</v>
+        <v>4521.789918678101</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7831,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>43.65987261462425</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>159.0121003135239</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>124.5670006750239</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>73.21863920366187</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>36.29530676753703</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>142.5524621266085</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>117.0896147389927</v>
       </c>
       <c r="T22" t="n">
-        <v>205.7954743629899</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.34209567542396</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>91.26539274301206</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>100.3848366094697</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>174.2693557855126</v>
+        <v>103.0576765518765</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>116.0405633468335</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>74.67545222029229</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>150.994988609815</v>
+        <v>27.43837499384577</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,13 +25371,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>77.91528990018801</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>124.5670006750239</v>
+        <v>15.94669972672142</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="11">
@@ -26314,31 +26316,31 @@
         <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459072</v>
@@ -26347,13 +26349,13 @@
         <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="O2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459072</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773395</v>
@@ -26448,13 +26450,13 @@
         <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="N4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="N4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="O4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773394</v>
@@ -26473,25 +26475,25 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26503,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766908</v>
+        <v>-301972.4494766907</v>
       </c>
       <c r="C6" t="n">
-        <v>287995.4297378535</v>
+        <v>287995.4297378534</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378537</v>
+        <v>287995.4297378536</v>
       </c>
       <c r="E6" t="n">
         <v>-125690.6152974397</v>
       </c>
       <c r="F6" t="n">
+        <v>399469.4211794567</v>
+      </c>
+      <c r="G6" t="n">
+        <v>399469.4211794568</v>
+      </c>
+      <c r="H6" t="n">
         <v>399469.4211794564</v>
       </c>
-      <c r="G6" t="n">
-        <v>399469.4211794564</v>
-      </c>
-      <c r="H6" t="n">
-        <v>399469.4211794565</v>
-      </c>
       <c r="I6" t="n">
-        <v>399469.4211794565</v>
+        <v>399469.4211794563</v>
       </c>
       <c r="J6" t="n">
-        <v>223046.2019868635</v>
+        <v>223046.2019868636</v>
       </c>
       <c r="K6" t="n">
-        <v>399469.4211794564</v>
+        <v>399469.4211794566</v>
       </c>
       <c r="L6" t="n">
         <v>399469.4211794566</v>
       </c>
       <c r="M6" t="n">
-        <v>264668.4059456191</v>
+        <v>264668.4059456192</v>
       </c>
       <c r="N6" t="n">
+        <v>399469.4211794566</v>
+      </c>
+      <c r="O6" t="n">
+        <v>399469.4211794562</v>
+      </c>
+      <c r="P6" t="n">
         <v>399469.4211794564</v>
-      </c>
-      <c r="O6" t="n">
-        <v>399469.4211794564</v>
-      </c>
-      <c r="P6" t="n">
-        <v>399469.4211794566</v>
       </c>
     </row>
   </sheetData>
@@ -26735,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26771,10 +26773,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>337.2890699879079</v>
       </c>
       <c r="Y2" t="n">
-        <v>208.8039902119445</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>206.5828674239351</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>52.37289065767749</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>20.34522396490258</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>44.9168637124005</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>289.7542661050684</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>222.3429013606628</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.8821630553969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>55.70950692404537</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28028,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>326.0235748557325</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>309.5875389014632</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38108,16 +38110,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2004867.939232172</v>
+        <v>1997850.924340461</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>74.32343379592697</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>32.44203069056119</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>47.29445517269119</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>317.3582100207915</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.777525990011728</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>191.4412686601322</v>
+        <v>33.05747890475413</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>92.90596609416698</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>152.4910161853753</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>78.99509893178077</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>80.83119524461051</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>224.8952567231534</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>3.658918749019565</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.64843562452408</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>160.9648301743507</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065128</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>74.23837614724384</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>123.4027026842193</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.0551934695318</v>
+        <v>160.872250580816</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.9092011318025</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>150.5468687366562</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1469.698544874887</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>975.109608078832</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>589.3213554805877</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>582.3758547313843</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4564,55 +4564,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1750.153230744814</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4658,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2251.981069572904</v>
+        <v>1723.034926616959</v>
       </c>
       <c r="C8" t="n">
-        <v>1883.018552632493</v>
+        <v>1723.034926616959</v>
       </c>
       <c r="D8" t="n">
-        <v>1524.752854025742</v>
+        <v>1364.769228010209</v>
       </c>
       <c r="E8" t="n">
-        <v>1138.964601427498</v>
+        <v>978.9809754119644</v>
       </c>
       <c r="F8" t="n">
-        <v>727.9786966378904</v>
+        <v>567.9950706223569</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4801,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1723.034926616959</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>329.7728273507101</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C10" t="n">
-        <v>329.7728273507101</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942403</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942403</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942403</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y10" t="n">
-        <v>329.7728273507101</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033467</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663861</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>465.9227641862091</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,10 +5536,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5703,22 +5703,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1108.128127811259</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1108.128127811259</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1108.128127811259</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>818.7109577742983</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X19" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1306.193495155475</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1306.193495155475</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1017.064856369034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014293</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4633.68764703131</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4379.003158825423</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W25" t="n">
-        <v>4089.585988788463</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X25" t="n">
-        <v>3861.596437890445</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y25" t="n">
-        <v>3640.803858746915</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,25 +6214,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,34 +6241,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153607</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>155.4478345153607</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>155.4478345153607</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735073</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4741.167820987512</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4452.03918220107</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4197.354693995183</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>3907.937523958222</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3679.947973060205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>807.3465877976907</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C34" t="n">
-        <v>638.4104048697839</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D34" t="n">
-        <v>488.2937654574481</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E34" t="n">
-        <v>340.380671875055</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>340.380671875055</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>172.2053501948756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>1150.481660716884</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.787631771461</v>
+        <v>861.0644906799231</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.787631771461</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.9950526279305</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>668.5656656016674</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C37" t="n">
-        <v>499.6294826737605</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D37" t="n">
-        <v>499.6294826737605</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E37" t="n">
-        <v>499.6294826737605</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F37" t="n">
-        <v>499.6294826737605</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>1071.006709575437</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>850.2141304319072</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,19 +7405,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4340.141453847861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>4171.205270919954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>4021.088631507619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3873.175537925225</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3873.175537925225</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4749.779469576118</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>4749.779469576118</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>4749.779469576118</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X43" t="n">
-        <v>4521.789918678101</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y43" t="n">
-        <v>4521.789918678101</v>
+        <v>268.6754855415407</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7648,52 +7648,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>223.1552313137088</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1313.886294955175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>43.65987261462425</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>85.3000633212781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>73.21863920366187</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>142.5524621266085</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>117.0896147389927</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.34209567542396</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>248.4787245748084</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>91.26539274301206</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>64.74482521468644</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518765</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>74.67545222029229</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,19 +25128,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>128.7349406396087</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>27.43837499384577</v>
+        <v>5.621317882561556</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>81.80045425723463</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>10.088170041495</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>15.94669972672142</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>14.74113413690324</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="N2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="L2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="G4" t="n">
-        <v>36432.48351773397</v>
-      </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,25 +26484,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766907</v>
+        <v>-301972.4494766908</v>
       </c>
       <c r="C6" t="n">
-        <v>287995.4297378534</v>
+        <v>287995.4297378536</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378536</v>
+        <v>287995.4297378535</v>
       </c>
       <c r="E6" t="n">
-        <v>-125690.6152974397</v>
+        <v>-126665.2065571614</v>
       </c>
       <c r="F6" t="n">
-        <v>399469.4211794567</v>
+        <v>398494.8299197347</v>
       </c>
       <c r="G6" t="n">
-        <v>399469.4211794568</v>
+        <v>398494.8299197349</v>
       </c>
       <c r="H6" t="n">
-        <v>399469.4211794564</v>
+        <v>398494.8299197347</v>
       </c>
       <c r="I6" t="n">
-        <v>399469.4211794563</v>
+        <v>398494.8299197348</v>
       </c>
       <c r="J6" t="n">
-        <v>223046.2019868636</v>
+        <v>222071.6107271419</v>
       </c>
       <c r="K6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="L6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197345</v>
       </c>
       <c r="M6" t="n">
-        <v>264668.4059456192</v>
+        <v>263693.8146858977</v>
       </c>
       <c r="N6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="O6" t="n">
-        <v>399469.4211794562</v>
+        <v>398494.829919735</v>
       </c>
       <c r="P6" t="n">
-        <v>399469.4211794564</v>
+        <v>398494.8299197346</v>
       </c>
     </row>
   </sheetData>
@@ -26755,22 +26755,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>307.6069362763348</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>337.2890699879079</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25436541380077</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>366.4897148481038</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>52.37289065767749</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.34522396490258</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>222.3429013606628</v>
+        <v>380.7266911160409</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>55.70950692404537</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>38.52630155726081</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>326.0235748557325</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>127.2102422761848</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1997850.924340461</v>
+        <v>2002790.187189493</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>74.32343379592697</v>
+        <v>350.666752269543</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.5776147681365</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>120.4120358099646</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>47.29445517269119</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>141.0102149207193</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>33.05747890475413</v>
+        <v>372.5327915267488</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>8.525532102719195</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.5269768002176</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>227.6105719499933</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12.49082363978136</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>3.658918749019565</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>160.9648301743507</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>123.4027026842193</v>
+        <v>69.96892003562412</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>160.872250580816</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>195.8155841663235</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.9092011318025</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.698544874887</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1111.432846268137</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.1627947174721</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.337823625994</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.375306685582</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>975.109608078832</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>589.3213554805877</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>582.3758547313843</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2181.248772231163</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1723.034926616959</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.034926616959</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D8" t="n">
-        <v>1364.769228010209</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E8" t="n">
-        <v>978.9809754119644</v>
+        <v>841.2246356268899</v>
       </c>
       <c r="F8" t="n">
-        <v>567.9950706223569</v>
+        <v>430.2387308372824</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.174258592771</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1723.034926616959</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.0273259635867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>184.0273259635867</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>184.0273259635867</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>184.0273259635867</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>958.0114883989233</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>958.0114883989233</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="17">
@@ -5494,46 +5494,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954965</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5755,10 +5755,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6183,16 +6183,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>982.3063390367042</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>692.8891689997437</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>464.8996181017263</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,13 +6238,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>554.6108700904385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>412.2823606383756</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>412.2823606383756</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1150.481660716884</v>
+        <v>939.1919448833521</v>
       </c>
       <c r="W34" t="n">
-        <v>861.0644906799231</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="X34" t="n">
-        <v>633.0749397819058</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y34" t="n">
-        <v>412.2823606383756</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.0685056491545</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1323227212476</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1323227212476</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1323227212476</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>882.7763375151577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1064.424802345397</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1064.424802345397</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7605,16 +7605,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>496.665036439558</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>189.3952778808841</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.3050033817197</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>58.62678044858407</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.8060970315905</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>154.7559974588465</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>248.4787245748084</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>64.74482521468644</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>128.7349406396087</v>
+        <v>182.1687232882039</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>5.621317882561556</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>22.76906918577129</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>81.80045425723463</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.088170041495</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="13">
@@ -26319,31 +26319,31 @@
         <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="M2" t="n">
         <v>527889.230645907</v>
@@ -26352,7 +26352,7 @@
         <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459069</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.686857128</v>
-      </c>
-      <c r="C4" t="n">
-        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
@@ -26429,16 +26429,16 @@
         <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773396</v>
@@ -26456,7 +26456,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773396</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26496,10 +26496,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766908</v>
+        <v>-301972.4494766907</v>
       </c>
       <c r="C6" t="n">
-        <v>287995.4297378536</v>
+        <v>287995.4297378535</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378535</v>
+        <v>287995.4297378534</v>
       </c>
       <c r="E6" t="n">
-        <v>-126665.2065571614</v>
+        <v>-125788.0744234118</v>
       </c>
       <c r="F6" t="n">
-        <v>398494.8299197347</v>
+        <v>399371.9620534845</v>
       </c>
       <c r="G6" t="n">
-        <v>398494.8299197349</v>
+        <v>399371.9620534843</v>
       </c>
       <c r="H6" t="n">
-        <v>398494.8299197347</v>
+        <v>399371.9620534843</v>
       </c>
       <c r="I6" t="n">
-        <v>398494.8299197348</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="J6" t="n">
-        <v>222071.6107271419</v>
+        <v>222948.7428608912</v>
       </c>
       <c r="K6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="L6" t="n">
-        <v>398494.8299197345</v>
+        <v>399371.9620534842</v>
       </c>
       <c r="M6" t="n">
-        <v>263693.8146858977</v>
+        <v>264570.946819647</v>
       </c>
       <c r="N6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="O6" t="n">
-        <v>398494.829919735</v>
+        <v>399371.9620534844</v>
       </c>
       <c r="P6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534841</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>307.6069362763348</v>
+        <v>31.26361780271878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.25436541380077</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>105.2976195790726</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>366.4897148481038</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>33.4054978882522</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>380.7266911160409</v>
+        <v>41.25137849404621</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>38.52630155726081</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047527</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
